--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE818CAE-B856-47B7-804F-5CEBD2AF77EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DACCD83-9616-4C22-9723-577081821AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>태스크</t>
   </si>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,7 +337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -671,6 +675,62 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
@@ -680,7 +740,7 @@
         <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,7 +754,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -890,22 +950,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -918,9 +969,6 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -948,6 +996,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1255,12 +1317,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY828"/>
+  <dimension ref="A1:XEW828"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="AF19" sqref="AF19"/>
+      <selection pane="bottomLeft" activeCell="AZ1" sqref="AZ1:BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1278,95 +1340,95 @@
     <col min="65" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:64 16378:16379" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B1" s="103" t="s">
+    <row r="1" spans="2:62 16376:16377" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="95" t="s">
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="96"/>
-      <c r="Z1" s="96"/>
-      <c r="AA1" s="96"/>
-      <c r="AB1" s="96"/>
-      <c r="AC1" s="96"/>
-      <c r="AD1" s="96"/>
-      <c r="AE1" s="96"/>
-      <c r="AF1" s="96"/>
-      <c r="AG1" s="96"/>
-      <c r="AH1" s="96"/>
-      <c r="AI1" s="96"/>
-      <c r="AJ1" s="96"/>
-      <c r="AK1" s="96"/>
-      <c r="AL1" s="96"/>
-      <c r="AM1" s="96"/>
-      <c r="AN1" s="96"/>
-      <c r="AO1" s="96"/>
-      <c r="AP1" s="96"/>
-      <c r="AQ1" s="96"/>
-      <c r="AR1" s="96"/>
-      <c r="AS1" s="96"/>
-      <c r="AT1" s="96"/>
-      <c r="AU1" s="96"/>
-      <c r="AV1" s="96"/>
-      <c r="AW1" s="96"/>
-      <c r="AX1" s="96"/>
-      <c r="AY1" s="96"/>
-      <c r="AZ1" s="96"/>
-      <c r="BA1" s="97"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="100"/>
+      <c r="BA1" s="101"/>
       <c r="BB1" s="54"/>
       <c r="BC1" s="54"/>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="90"/>
-      <c r="BF1" s="91"/>
-      <c r="BG1" s="91"/>
-      <c r="BH1" s="91"/>
-      <c r="BI1" s="91"/>
-      <c r="BJ1" s="84"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="88"/>
+      <c r="BG1" s="88"/>
+      <c r="BH1" s="88"/>
+      <c r="BI1" s="88"/>
+      <c r="BJ1" s="83"/>
     </row>
-    <row r="2" spans="2:64 16378:16379" s="4" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
+    <row r="2" spans="2:62 16376:16377" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="30">
         <v>9</v>
       </c>
@@ -1419,101 +1481,96 @@
         <v>3</v>
       </c>
       <c r="Z2" s="63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AC2" s="63">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD2" s="63">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE2" s="63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG2" s="63">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH2" s="63">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI2" s="63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ2" s="63">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK2" s="63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL2" s="63">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM2" s="63">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN2" s="63">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="63">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP2" s="63">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ2" s="63">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" s="63">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS2" s="63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT2" s="63">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU2" s="63">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV2" s="63">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW2" s="63">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AX2" s="63">
-        <v>28</v>
-      </c>
-      <c r="AY2" s="63">
-        <v>29</v>
-      </c>
-      <c r="AZ2" s="63">
         <v>30</v>
       </c>
-      <c r="BA2" s="92">
+      <c r="AY2" s="89">
         <v>31</v>
       </c>
-      <c r="BC2" s="58"/>
-      <c r="BD2" s="93"/>
-      <c r="BE2" s="85"/>
-      <c r="BF2" s="57"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="82"/>
+      <c r="AZ2" s="104"/>
+      <c r="BA2" s="105"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="105"/>
+      <c r="BG2" s="82"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
       <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
     </row>
-    <row r="3" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="3" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
@@ -1573,26 +1630,24 @@
       <c r="AQ3" s="27"/>
       <c r="AR3" s="27"/>
       <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
       <c r="AV3" s="28"/>
       <c r="AW3" s="28"/>
       <c r="AX3" s="28"/>
       <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="49"/>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="87"/>
-      <c r="BH3" s="88"/>
-      <c r="BI3" s="87"/>
-      <c r="XEX3"/>
-      <c r="XEY3"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="55"/>
+      <c r="BG3" s="85"/>
+      <c r="XEV3"/>
+      <c r="XEW3"/>
     </row>
-    <row r="4" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="4" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1652,21 +1707,21 @@
       <c r="AQ4" s="27"/>
       <c r="AR4" s="27"/>
       <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
       <c r="AV4" s="28"/>
       <c r="AW4" s="28"/>
       <c r="AX4" s="28"/>
       <c r="AY4" s="28"/>
-      <c r="AZ4" s="28"/>
-      <c r="BA4" s="28"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
       <c r="BD4" s="1"/>
-      <c r="XEX4"/>
-      <c r="XEY4"/>
+      <c r="XEV4"/>
+      <c r="XEW4"/>
     </row>
-    <row r="5" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="5" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B5" s="19" t="s">
         <v>22</v>
       </c>
@@ -1725,21 +1780,22 @@
       <c r="AQ5" s="26"/>
       <c r="AR5" s="26"/>
       <c r="AS5" s="26"/>
-      <c r="AT5" s="26"/>
-      <c r="AU5" s="26"/>
+      <c r="AT5" s="31"/>
+      <c r="AU5" s="31"/>
       <c r="AV5" s="31"/>
       <c r="AW5" s="31"/>
       <c r="AX5" s="31"/>
       <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
       <c r="BD5" s="1"/>
-      <c r="XEX5"/>
-      <c r="XEY5"/>
+      <c r="BI5" s="55"/>
+      <c r="XEV5"/>
+      <c r="XEW5"/>
     </row>
-    <row r="6" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B6" s="48" t="s">
         <v>33</v>
       </c>
@@ -1798,21 +1854,21 @@
       <c r="AQ6" s="26"/>
       <c r="AR6" s="26"/>
       <c r="AS6" s="26"/>
-      <c r="AT6" s="26"/>
-      <c r="AU6" s="26"/>
+      <c r="AT6" s="31"/>
+      <c r="AU6" s="31"/>
       <c r="AV6" s="31"/>
       <c r="AW6" s="31"/>
       <c r="AX6" s="31"/>
       <c r="AY6" s="31"/>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="31"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
       <c r="BD6" s="1"/>
-      <c r="XEX6"/>
-      <c r="XEY6"/>
+      <c r="XEV6"/>
+      <c r="XEW6"/>
     </row>
-    <row r="7" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1871,21 +1927,21 @@
       <c r="AQ7" s="26"/>
       <c r="AR7" s="26"/>
       <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
+      <c r="AT7" s="31"/>
+      <c r="AU7" s="31"/>
       <c r="AV7" s="31"/>
       <c r="AW7" s="31"/>
       <c r="AX7" s="31"/>
       <c r="AY7" s="31"/>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="31"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
       <c r="BC7" s="1"/>
       <c r="BD7" s="1"/>
-      <c r="XEX7"/>
-      <c r="XEY7"/>
+      <c r="XEV7"/>
+      <c r="XEW7"/>
     </row>
-    <row r="8" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="8" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
@@ -1938,21 +1994,21 @@
       <c r="AQ8" s="26"/>
       <c r="AR8" s="26"/>
       <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="26"/>
+      <c r="AT8" s="31"/>
+      <c r="AU8" s="31"/>
       <c r="AV8" s="31"/>
       <c r="AW8" s="31"/>
       <c r="AX8" s="31"/>
       <c r="AY8" s="31"/>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="31"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
       <c r="BC8" s="1"/>
       <c r="BD8" s="1"/>
-      <c r="XEX8"/>
-      <c r="XEY8"/>
+      <c r="XEV8"/>
+      <c r="XEW8"/>
     </row>
-    <row r="9" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2011,21 +2067,21 @@
       <c r="AQ9" s="26"/>
       <c r="AR9" s="26"/>
       <c r="AS9" s="26"/>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26"/>
+      <c r="AT9" s="31"/>
+      <c r="AU9" s="31"/>
       <c r="AV9" s="31"/>
       <c r="AW9" s="31"/>
       <c r="AX9" s="31"/>
       <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
       <c r="BC9" s="1"/>
       <c r="BD9" s="1"/>
-      <c r="XEX9"/>
-      <c r="XEY9"/>
+      <c r="XEV9"/>
+      <c r="XEW9"/>
     </row>
-    <row r="10" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="10" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
@@ -2084,21 +2140,21 @@
       <c r="AQ10" s="26"/>
       <c r="AR10" s="26"/>
       <c r="AS10" s="26"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
+      <c r="AT10" s="31"/>
+      <c r="AU10" s="31"/>
       <c r="AV10" s="31"/>
       <c r="AW10" s="31"/>
       <c r="AX10" s="31"/>
       <c r="AY10" s="31"/>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="31"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
       <c r="BB10" s="1"/>
       <c r="BC10" s="1"/>
       <c r="BD10" s="1"/>
-      <c r="XEX10"/>
-      <c r="XEY10"/>
+      <c r="XEV10"/>
+      <c r="XEW10"/>
     </row>
-    <row r="11" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="11" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
@@ -2136,7 +2192,7 @@
       <c r="V11" s="26"/>
       <c r="W11" s="61"/>
       <c r="X11" s="66"/>
-      <c r="Y11" s="94"/>
+      <c r="Y11" s="90"/>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
@@ -2157,21 +2213,21 @@
       <c r="AQ11" s="26"/>
       <c r="AR11" s="26"/>
       <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
+      <c r="AT11" s="31"/>
+      <c r="AU11" s="31"/>
       <c r="AV11" s="31"/>
       <c r="AW11" s="31"/>
       <c r="AX11" s="31"/>
       <c r="AY11" s="31"/>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="31"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
       <c r="BB11" s="1"/>
       <c r="BC11" s="1"/>
       <c r="BD11" s="1"/>
-      <c r="XEX11"/>
-      <c r="XEY11"/>
+      <c r="XEV11"/>
+      <c r="XEW11"/>
     </row>
-    <row r="12" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="12" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2184,9 +2240,15 @@
       <c r="E12" s="6">
         <v>43833</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="6">
+        <v>43837</v>
+      </c>
+      <c r="G12" s="21">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="26"/>
@@ -2203,9 +2265,9 @@
       <c r="V12" s="26"/>
       <c r="W12" s="61"/>
       <c r="X12" s="41"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
@@ -2224,29 +2286,33 @@
       <c r="AQ12" s="26"/>
       <c r="AR12" s="26"/>
       <c r="AS12" s="26"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="26"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
       <c r="AV12" s="31"/>
       <c r="AW12" s="31"/>
       <c r="AX12" s="31"/>
       <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
       <c r="BD12" s="1"/>
-      <c r="XEX12"/>
-      <c r="XEY12"/>
+      <c r="XEV12"/>
+      <c r="XEW12"/>
     </row>
-    <row r="13" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="13" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="6">
+        <v>43837</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="21"/>
       <c r="H13" s="15"/>
@@ -2268,7 +2334,7 @@
       <c r="X13" s="26"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
-      <c r="AA13" s="26"/>
+      <c r="AA13" s="90"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
@@ -2287,21 +2353,21 @@
       <c r="AQ13" s="26"/>
       <c r="AR13" s="26"/>
       <c r="AS13" s="26"/>
-      <c r="AT13" s="26"/>
-      <c r="AU13" s="26"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
       <c r="AV13" s="31"/>
       <c r="AW13" s="31"/>
       <c r="AX13" s="31"/>
       <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
       <c r="BD13" s="1"/>
-      <c r="XEX13"/>
-      <c r="XEY13"/>
+      <c r="XEV13"/>
+      <c r="XEW13"/>
     </row>
-    <row r="14" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="14" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
@@ -2350,21 +2416,21 @@
       <c r="AQ14" s="26"/>
       <c r="AR14" s="26"/>
       <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="AU14" s="26"/>
+      <c r="AT14" s="31"/>
+      <c r="AU14" s="31"/>
       <c r="AV14" s="31"/>
       <c r="AW14" s="31"/>
       <c r="AX14" s="31"/>
       <c r="AY14" s="31"/>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="31"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
       <c r="BD14" s="1"/>
-      <c r="XEX14"/>
-      <c r="XEY14"/>
+      <c r="XEV14"/>
+      <c r="XEW14"/>
     </row>
-    <row r="15" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="15" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -2413,21 +2479,21 @@
       <c r="AQ15" s="26"/>
       <c r="AR15" s="26"/>
       <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
+      <c r="AT15" s="31"/>
+      <c r="AU15" s="31"/>
       <c r="AV15" s="31"/>
       <c r="AW15" s="31"/>
       <c r="AX15" s="31"/>
       <c r="AY15" s="31"/>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="31"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
       <c r="BD15" s="1"/>
-      <c r="XEX15"/>
-      <c r="XEY15"/>
+      <c r="XEV15"/>
+      <c r="XEW15"/>
     </row>
-    <row r="16" spans="2:64 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="16" spans="2:62 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2476,21 +2542,21 @@
       <c r="AQ16" s="26"/>
       <c r="AR16" s="26"/>
       <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
+      <c r="AT16" s="31"/>
+      <c r="AU16" s="31"/>
       <c r="AV16" s="31"/>
       <c r="AW16" s="31"/>
       <c r="AX16" s="31"/>
       <c r="AY16" s="31"/>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="31"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
       <c r="BD16" s="1"/>
-      <c r="XEX16"/>
-      <c r="XEY16"/>
+      <c r="XEV16"/>
+      <c r="XEW16"/>
     </row>
-    <row r="17" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="17" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2539,21 +2605,21 @@
       <c r="AQ17" s="26"/>
       <c r="AR17" s="26"/>
       <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="26"/>
+      <c r="AT17" s="31"/>
+      <c r="AU17" s="31"/>
       <c r="AV17" s="31"/>
       <c r="AW17" s="31"/>
       <c r="AX17" s="31"/>
       <c r="AY17" s="31"/>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="31"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
       <c r="BD17" s="1"/>
-      <c r="XEX17"/>
-      <c r="XEY17"/>
+      <c r="XEV17"/>
+      <c r="XEW17"/>
     </row>
-    <row r="18" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="18" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
@@ -2602,21 +2668,21 @@
       <c r="AQ18" s="26"/>
       <c r="AR18" s="26"/>
       <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
       <c r="AV18" s="31"/>
       <c r="AW18" s="31"/>
       <c r="AX18" s="31"/>
       <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
       <c r="BD18" s="1"/>
-      <c r="XEX18"/>
-      <c r="XEY18"/>
+      <c r="XEV18"/>
+      <c r="XEW18"/>
     </row>
-    <row r="19" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>26</v>
       </c>
@@ -2665,21 +2731,21 @@
       <c r="AQ19" s="26"/>
       <c r="AR19" s="26"/>
       <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
+      <c r="AT19" s="31"/>
+      <c r="AU19" s="31"/>
       <c r="AV19" s="31"/>
       <c r="AW19" s="31"/>
       <c r="AX19" s="31"/>
       <c r="AY19" s="31"/>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="31"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
       <c r="BD19" s="1"/>
-      <c r="XEX19"/>
-      <c r="XEY19"/>
+      <c r="XEV19"/>
+      <c r="XEW19"/>
     </row>
-    <row r="20" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="20" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2728,21 +2794,21 @@
       <c r="AQ20" s="26"/>
       <c r="AR20" s="26"/>
       <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
+      <c r="AT20" s="31"/>
+      <c r="AU20" s="31"/>
       <c r="AV20" s="31"/>
       <c r="AW20" s="31"/>
       <c r="AX20" s="31"/>
       <c r="AY20" s="31"/>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="31"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
       <c r="BD20" s="1"/>
-      <c r="XEX20"/>
-      <c r="XEY20"/>
+      <c r="XEV20"/>
+      <c r="XEW20"/>
     </row>
-    <row r="21" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="21" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2801,21 +2867,21 @@
       <c r="AQ21" s="26"/>
       <c r="AR21" s="26"/>
       <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
+      <c r="AT21" s="31"/>
+      <c r="AU21" s="31"/>
       <c r="AV21" s="31"/>
       <c r="AW21" s="31"/>
       <c r="AX21" s="31"/>
       <c r="AY21" s="31"/>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="31"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
       <c r="BD21" s="1"/>
-      <c r="XEX21"/>
-      <c r="XEY21"/>
+      <c r="XEV21"/>
+      <c r="XEW21"/>
     </row>
-    <row r="22" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="22" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
@@ -2874,21 +2940,21 @@
       <c r="AQ22" s="26"/>
       <c r="AR22" s="26"/>
       <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
       <c r="AV22" s="31"/>
       <c r="AW22" s="31"/>
       <c r="AX22" s="31"/>
       <c r="AY22" s="31"/>
-      <c r="AZ22" s="31"/>
-      <c r="BA22" s="31"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
       <c r="BD22" s="1"/>
-      <c r="XEX22"/>
-      <c r="XEY22"/>
+      <c r="XEV22"/>
+      <c r="XEW22"/>
     </row>
-    <row r="23" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="23" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B23" s="18" t="s">
         <v>13</v>
       </c>
@@ -2935,21 +3001,21 @@
       <c r="AQ23" s="26"/>
       <c r="AR23" s="26"/>
       <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
       <c r="AV23" s="31"/>
       <c r="AW23" s="31"/>
       <c r="AX23" s="31"/>
       <c r="AY23" s="31"/>
-      <c r="AZ23" s="31"/>
-      <c r="BA23" s="31"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
       <c r="BD23" s="1"/>
-      <c r="XEX23"/>
-      <c r="XEY23"/>
+      <c r="XEV23"/>
+      <c r="XEW23"/>
     </row>
-    <row r="24" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="24" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B24" s="42"/>
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
@@ -2994,21 +3060,21 @@
       <c r="AQ24" s="26"/>
       <c r="AR24" s="26"/>
       <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
+      <c r="AT24" s="31"/>
+      <c r="AU24" s="31"/>
       <c r="AV24" s="31"/>
       <c r="AW24" s="31"/>
       <c r="AX24" s="31"/>
       <c r="AY24" s="31"/>
-      <c r="AZ24" s="31"/>
-      <c r="BA24" s="31"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
       <c r="BD24" s="1"/>
-      <c r="XEX24"/>
-      <c r="XEY24"/>
+      <c r="XEV24"/>
+      <c r="XEW24"/>
     </row>
-    <row r="25" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="25" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B25" s="42"/>
       <c r="C25" s="43"/>
       <c r="D25" s="44"/>
@@ -3053,23 +3119,21 @@
       <c r="AQ25" s="26"/>
       <c r="AR25" s="26"/>
       <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="26"/>
+      <c r="AT25" s="31"/>
+      <c r="AU25" s="31"/>
       <c r="AV25" s="31"/>
       <c r="AW25" s="31"/>
       <c r="AX25" s="31"/>
       <c r="AY25" s="31"/>
-      <c r="AZ25" s="31"/>
-      <c r="BA25" s="31"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="55"/>
+      <c r="BC25" s="55"/>
       <c r="BD25" s="55"/>
-      <c r="BE25" s="55"/>
-      <c r="BF25" s="55"/>
-      <c r="XEX25"/>
-      <c r="XEY25"/>
+      <c r="XEV25"/>
+      <c r="XEW25"/>
     </row>
-    <row r="26" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="26" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B26" s="42"/>
       <c r="C26" s="43"/>
       <c r="D26" s="44"/>
@@ -3114,21 +3178,21 @@
       <c r="AQ26" s="26"/>
       <c r="AR26" s="26"/>
       <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
+      <c r="AT26" s="31"/>
+      <c r="AU26" s="31"/>
       <c r="AV26" s="31"/>
       <c r="AW26" s="31"/>
       <c r="AX26" s="31"/>
       <c r="AY26" s="31"/>
-      <c r="AZ26" s="31"/>
-      <c r="BA26" s="31"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
       <c r="BD26" s="1"/>
-      <c r="XEX26"/>
-      <c r="XEY26"/>
+      <c r="XEV26"/>
+      <c r="XEW26"/>
     </row>
-    <row r="27" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="27" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
@@ -3173,21 +3237,21 @@
       <c r="AQ27" s="26"/>
       <c r="AR27" s="26"/>
       <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
       <c r="AV27" s="31"/>
       <c r="AW27" s="31"/>
       <c r="AX27" s="31"/>
       <c r="AY27" s="31"/>
-      <c r="AZ27" s="31"/>
-      <c r="BA27" s="31"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
       <c r="BD27" s="1"/>
-      <c r="XEX27"/>
-      <c r="XEY27"/>
+      <c r="XEV27"/>
+      <c r="XEW27"/>
     </row>
-    <row r="28" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="28" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B28" s="42"/>
       <c r="C28" s="43"/>
       <c r="D28" s="44"/>
@@ -3232,21 +3296,21 @@
       <c r="AQ28" s="26"/>
       <c r="AR28" s="26"/>
       <c r="AS28" s="26"/>
-      <c r="AT28" s="26"/>
-      <c r="AU28" s="26"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
       <c r="AV28" s="31"/>
       <c r="AW28" s="31"/>
       <c r="AX28" s="31"/>
       <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
       <c r="BD28" s="1"/>
-      <c r="XEX28"/>
-      <c r="XEY28"/>
+      <c r="XEV28"/>
+      <c r="XEW28"/>
     </row>
-    <row r="29" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="29" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B29" s="42"/>
       <c r="C29" s="43"/>
       <c r="D29" s="44"/>
@@ -3291,21 +3355,21 @@
       <c r="AQ29" s="26"/>
       <c r="AR29" s="26"/>
       <c r="AS29" s="26"/>
-      <c r="AT29" s="26"/>
-      <c r="AU29" s="26"/>
+      <c r="AT29" s="31"/>
+      <c r="AU29" s="31"/>
       <c r="AV29" s="31"/>
       <c r="AW29" s="31"/>
       <c r="AX29" s="31"/>
       <c r="AY29" s="31"/>
-      <c r="AZ29" s="31"/>
-      <c r="BA29" s="31"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
       <c r="BD29" s="1"/>
-      <c r="XEX29"/>
-      <c r="XEY29"/>
+      <c r="XEV29"/>
+      <c r="XEW29"/>
     </row>
-    <row r="30" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="30" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="D30" s="44"/>
@@ -3350,21 +3414,21 @@
       <c r="AQ30" s="26"/>
       <c r="AR30" s="26"/>
       <c r="AS30" s="26"/>
-      <c r="AT30" s="26"/>
-      <c r="AU30" s="26"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
       <c r="AV30" s="31"/>
       <c r="AW30" s="31"/>
       <c r="AX30" s="31"/>
       <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
       <c r="BD30" s="1"/>
-      <c r="XEX30"/>
-      <c r="XEY30"/>
+      <c r="XEV30"/>
+      <c r="XEW30"/>
     </row>
-    <row r="31" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="31" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
       <c r="D31" s="44"/>
@@ -3409,21 +3473,21 @@
       <c r="AQ31" s="26"/>
       <c r="AR31" s="26"/>
       <c r="AS31" s="26"/>
-      <c r="AT31" s="26"/>
-      <c r="AU31" s="26"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
       <c r="AV31" s="31"/>
       <c r="AW31" s="31"/>
       <c r="AX31" s="31"/>
       <c r="AY31" s="31"/>
-      <c r="AZ31" s="31"/>
-      <c r="BA31" s="31"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
       <c r="BC31" s="1"/>
       <c r="BD31" s="1"/>
-      <c r="XEX31"/>
-      <c r="XEY31"/>
+      <c r="XEV31"/>
+      <c r="XEW31"/>
     </row>
-    <row r="32" spans="2:58 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="32" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B32" s="42"/>
       <c r="C32" s="43"/>
       <c r="D32" s="44"/>
@@ -3468,21 +3532,21 @@
       <c r="AQ32" s="26"/>
       <c r="AR32" s="26"/>
       <c r="AS32" s="26"/>
-      <c r="AT32" s="26"/>
-      <c r="AU32" s="26"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
       <c r="AV32" s="31"/>
       <c r="AW32" s="31"/>
       <c r="AX32" s="31"/>
       <c r="AY32" s="31"/>
-      <c r="AZ32" s="31"/>
-      <c r="BA32" s="31"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
       <c r="BD32" s="1"/>
-      <c r="XEX32"/>
-      <c r="XEY32"/>
+      <c r="XEV32"/>
+      <c r="XEW32"/>
     </row>
-    <row r="33" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="33" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B33" s="42"/>
       <c r="C33" s="43"/>
       <c r="D33" s="44"/>
@@ -3527,21 +3591,21 @@
       <c r="AQ33" s="26"/>
       <c r="AR33" s="26"/>
       <c r="AS33" s="26"/>
-      <c r="AT33" s="26"/>
-      <c r="AU33" s="26"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
       <c r="AV33" s="31"/>
       <c r="AW33" s="31"/>
       <c r="AX33" s="31"/>
       <c r="AY33" s="31"/>
-      <c r="AZ33" s="31"/>
-      <c r="BA33" s="31"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
       <c r="BD33" s="1"/>
-      <c r="XEX33"/>
-      <c r="XEY33"/>
+      <c r="XEV33"/>
+      <c r="XEW33"/>
     </row>
-    <row r="34" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="34" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B34" s="42"/>
       <c r="C34" s="43"/>
       <c r="D34" s="44"/>
@@ -3586,21 +3650,21 @@
       <c r="AQ34" s="26"/>
       <c r="AR34" s="26"/>
       <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
       <c r="AV34" s="31"/>
       <c r="AW34" s="31"/>
       <c r="AX34" s="31"/>
       <c r="AY34" s="31"/>
-      <c r="AZ34" s="31"/>
-      <c r="BA34" s="31"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
       <c r="BD34" s="1"/>
-      <c r="XEX34"/>
-      <c r="XEY34"/>
+      <c r="XEV34"/>
+      <c r="XEW34"/>
     </row>
-    <row r="35" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="35" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B35" s="42"/>
       <c r="C35" s="43"/>
       <c r="D35" s="44"/>
@@ -3645,21 +3709,21 @@
       <c r="AQ35" s="26"/>
       <c r="AR35" s="26"/>
       <c r="AS35" s="26"/>
-      <c r="AT35" s="26"/>
-      <c r="AU35" s="26"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
       <c r="AV35" s="31"/>
       <c r="AW35" s="31"/>
       <c r="AX35" s="31"/>
       <c r="AY35" s="31"/>
-      <c r="AZ35" s="31"/>
-      <c r="BA35" s="31"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
       <c r="BD35" s="1"/>
-      <c r="XEX35"/>
-      <c r="XEY35"/>
+      <c r="XEV35"/>
+      <c r="XEW35"/>
     </row>
-    <row r="36" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="36" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B36" s="42"/>
       <c r="C36" s="43"/>
       <c r="D36" s="44"/>
@@ -3704,21 +3768,21 @@
       <c r="AQ36" s="26"/>
       <c r="AR36" s="26"/>
       <c r="AS36" s="26"/>
-      <c r="AT36" s="26"/>
-      <c r="AU36" s="26"/>
+      <c r="AT36" s="31"/>
+      <c r="AU36" s="31"/>
       <c r="AV36" s="31"/>
       <c r="AW36" s="31"/>
       <c r="AX36" s="31"/>
       <c r="AY36" s="31"/>
-      <c r="AZ36" s="31"/>
-      <c r="BA36" s="31"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
       <c r="BD36" s="1"/>
-      <c r="XEX36"/>
-      <c r="XEY36"/>
+      <c r="XEV36"/>
+      <c r="XEW36"/>
     </row>
-    <row r="37" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="37" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
@@ -3763,21 +3827,21 @@
       <c r="AQ37" s="26"/>
       <c r="AR37" s="26"/>
       <c r="AS37" s="26"/>
-      <c r="AT37" s="26"/>
-      <c r="AU37" s="26"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
       <c r="AV37" s="31"/>
       <c r="AW37" s="31"/>
       <c r="AX37" s="31"/>
       <c r="AY37" s="31"/>
-      <c r="AZ37" s="31"/>
-      <c r="BA37" s="31"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
       <c r="BD37" s="1"/>
-      <c r="XEX37"/>
-      <c r="XEY37"/>
+      <c r="XEV37"/>
+      <c r="XEW37"/>
     </row>
-    <row r="38" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="38" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B38" s="72"/>
       <c r="C38" s="73"/>
       <c r="D38" s="74"/>
@@ -3822,21 +3886,21 @@
       <c r="AQ38" s="79"/>
       <c r="AR38" s="79"/>
       <c r="AS38" s="79"/>
-      <c r="AT38" s="79"/>
-      <c r="AU38" s="79"/>
+      <c r="AT38" s="81"/>
+      <c r="AU38" s="81"/>
       <c r="AV38" s="81"/>
       <c r="AW38" s="81"/>
       <c r="AX38" s="81"/>
       <c r="AY38" s="81"/>
-      <c r="AZ38" s="81"/>
-      <c r="BA38" s="81"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
       <c r="BD38" s="1"/>
-      <c r="XEX38"/>
-      <c r="XEY38"/>
+      <c r="XEV38"/>
+      <c r="XEW38"/>
     </row>
-    <row r="39" spans="2:56 16378:16379" ht="18.600000000000001" customHeight="1">
+    <row r="39" spans="2:56 16376:16377" ht="18.600000000000001" customHeight="1">
       <c r="B39" s="42"/>
       <c r="C39" s="43"/>
       <c r="D39" s="67"/>
@@ -3881,21 +3945,21 @@
       <c r="AQ39" s="69"/>
       <c r="AR39" s="69"/>
       <c r="AS39" s="69"/>
-      <c r="AT39" s="69"/>
-      <c r="AU39" s="69"/>
+      <c r="AT39" s="71"/>
+      <c r="AU39" s="71"/>
       <c r="AV39" s="71"/>
       <c r="AW39" s="71"/>
       <c r="AX39" s="71"/>
       <c r="AY39" s="71"/>
-      <c r="AZ39" s="71"/>
-      <c r="BA39" s="71"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
       <c r="BD39" s="1"/>
-      <c r="XEX39"/>
-      <c r="XEY39"/>
+      <c r="XEV39"/>
+      <c r="XEW39"/>
     </row>
-    <row r="40" spans="2:56 16378:16379" ht="18" customHeight="1">
+    <row r="40" spans="2:56 16376:16377" ht="18" customHeight="1">
       <c r="B40" s="42"/>
       <c r="C40" s="43"/>
       <c r="D40" s="44"/>
@@ -3940,21 +4004,21 @@
       <c r="AQ40" s="26"/>
       <c r="AR40" s="26"/>
       <c r="AS40" s="26"/>
-      <c r="AT40" s="26"/>
-      <c r="AU40" s="26"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
       <c r="AV40" s="31"/>
       <c r="AW40" s="31"/>
       <c r="AX40" s="31"/>
       <c r="AY40" s="31"/>
-      <c r="AZ40" s="31"/>
-      <c r="BA40" s="31"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
       <c r="BD40" s="1"/>
-      <c r="XEX40"/>
-      <c r="XEY40"/>
+      <c r="XEV40"/>
+      <c r="XEW40"/>
     </row>
-    <row r="41" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="41" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B41" s="42"/>
       <c r="C41" s="43"/>
       <c r="D41" s="44"/>
@@ -3999,21 +4063,21 @@
       <c r="AQ41" s="26"/>
       <c r="AR41" s="26"/>
       <c r="AS41" s="26"/>
-      <c r="AT41" s="26"/>
-      <c r="AU41" s="26"/>
+      <c r="AT41" s="31"/>
+      <c r="AU41" s="31"/>
       <c r="AV41" s="31"/>
       <c r="AW41" s="31"/>
       <c r="AX41" s="31"/>
       <c r="AY41" s="31"/>
-      <c r="AZ41" s="31"/>
-      <c r="BA41" s="31"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
       <c r="BD41" s="1"/>
-      <c r="XEX41"/>
-      <c r="XEY41"/>
+      <c r="XEV41"/>
+      <c r="XEW41"/>
     </row>
-    <row r="42" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="42" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B42" s="42"/>
       <c r="C42" s="43"/>
       <c r="D42" s="44"/>
@@ -4058,21 +4122,21 @@
       <c r="AQ42" s="26"/>
       <c r="AR42" s="26"/>
       <c r="AS42" s="26"/>
-      <c r="AT42" s="26"/>
-      <c r="AU42" s="26"/>
+      <c r="AT42" s="31"/>
+      <c r="AU42" s="31"/>
       <c r="AV42" s="31"/>
       <c r="AW42" s="31"/>
       <c r="AX42" s="31"/>
       <c r="AY42" s="31"/>
-      <c r="AZ42" s="31"/>
-      <c r="BA42" s="31"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
       <c r="BD42" s="1"/>
-      <c r="XEX42"/>
-      <c r="XEY42"/>
+      <c r="XEV42"/>
+      <c r="XEW42"/>
     </row>
-    <row r="43" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="43" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B43" s="33"/>
       <c r="C43" s="34"/>
       <c r="D43" s="35"/>
@@ -4117,21 +4181,21 @@
       <c r="AQ43" s="26"/>
       <c r="AR43" s="26"/>
       <c r="AS43" s="26"/>
-      <c r="AT43" s="26"/>
-      <c r="AU43" s="26"/>
+      <c r="AT43" s="31"/>
+      <c r="AU43" s="31"/>
       <c r="AV43" s="31"/>
       <c r="AW43" s="31"/>
       <c r="AX43" s="31"/>
       <c r="AY43" s="31"/>
-      <c r="AZ43" s="31"/>
-      <c r="BA43" s="31"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
       <c r="BD43" s="1"/>
-      <c r="XEX43"/>
-      <c r="XEY43"/>
+      <c r="XEV43"/>
+      <c r="XEW43"/>
     </row>
-    <row r="44" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="44" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B44" s="33"/>
       <c r="C44" s="34"/>
       <c r="D44" s="35"/>
@@ -4176,21 +4240,21 @@
       <c r="AQ44" s="26"/>
       <c r="AR44" s="26"/>
       <c r="AS44" s="26"/>
-      <c r="AT44" s="26"/>
-      <c r="AU44" s="26"/>
+      <c r="AT44" s="31"/>
+      <c r="AU44" s="31"/>
       <c r="AV44" s="31"/>
       <c r="AW44" s="31"/>
       <c r="AX44" s="31"/>
       <c r="AY44" s="31"/>
-      <c r="AZ44" s="31"/>
-      <c r="BA44" s="31"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
       <c r="BC44" s="1"/>
       <c r="BD44" s="1"/>
-      <c r="XEX44"/>
-      <c r="XEY44"/>
+      <c r="XEV44"/>
+      <c r="XEW44"/>
     </row>
-    <row r="45" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="45" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B45" s="18" t="s">
         <v>17</v>
       </c>
@@ -4237,21 +4301,21 @@
       <c r="AQ45" s="26"/>
       <c r="AR45" s="26"/>
       <c r="AS45" s="26"/>
-      <c r="AT45" s="26"/>
-      <c r="AU45" s="26"/>
+      <c r="AT45" s="31"/>
+      <c r="AU45" s="31"/>
       <c r="AV45" s="31"/>
       <c r="AW45" s="31"/>
       <c r="AX45" s="31"/>
       <c r="AY45" s="31"/>
-      <c r="AZ45" s="31"/>
-      <c r="BA45" s="31"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
       <c r="BC45" s="1"/>
       <c r="BD45" s="1"/>
-      <c r="XEX45"/>
-      <c r="XEY45"/>
+      <c r="XEV45"/>
+      <c r="XEW45"/>
     </row>
-    <row r="46" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="46" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B46" s="2" t="s">
         <v>18</v>
       </c>
@@ -4306,10 +4370,10 @@
       <c r="AW46" s="26"/>
       <c r="AX46" s="26"/>
       <c r="AY46" s="26"/>
-      <c r="AZ46" s="26"/>
-      <c r="BA46" s="26"/>
+      <c r="BC46" s="1"/>
+      <c r="BD46" s="1"/>
     </row>
-    <row r="47" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="47" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
@@ -4358,16 +4422,16 @@
       <c r="AQ47" s="26"/>
       <c r="AR47" s="26"/>
       <c r="AS47" s="26"/>
-      <c r="AT47" s="26"/>
-      <c r="AU47" s="26"/>
+      <c r="AT47" s="31"/>
+      <c r="AU47" s="31"/>
       <c r="AV47" s="31"/>
       <c r="AW47" s="31"/>
       <c r="AX47" s="31"/>
       <c r="AY47" s="31"/>
-      <c r="AZ47" s="31"/>
-      <c r="BA47" s="31"/>
+      <c r="BC47" s="1"/>
+      <c r="BD47" s="1"/>
     </row>
-    <row r="48" spans="2:56 16378:16379" ht="17.399999999999999" customHeight="1">
+    <row r="48" spans="2:56 16376:16377" ht="17.399999999999999" customHeight="1">
       <c r="I48" s="52"/>
       <c r="J48" s="53"/>
       <c r="K48" s="51"/>
@@ -5161,7 +5225,6 @@
     <row r="828" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="X1:BA1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:W1"/>
@@ -5170,6 +5233,7 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="X1:AY1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.14000000000000001" right="0.13" top="0.42" bottom="0.31" header="0.45" footer="0.3"/>
